--- a/other/input/AQWMS/sample_type_abbreviations.xlsx
+++ b/other/input/AQWMS/sample_type_abbreviations.xlsx
@@ -594,6 +594,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
